--- a/Script_details.xlsx
+++ b/Script_details.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovedaylewin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovedaylewin/Documents/GitHub/five-prime-effects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65A3403-AFD3-B24C-92FF-46838BD0B408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207A7BE4-6B9D-C04F-B8AB-E2E31E725269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="1000" windowWidth="12900" windowHeight="13860" xr2:uid="{9C09A504-14E5-EE4C-89B7-827C9A4D530B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{9C09A504-14E5-EE4C-89B7-827C9A4D530B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all_scripts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,31 +36,499 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>What does it do?</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t>Goodman_analysis.py</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculates </t>
+    <t>figure1.r</t>
+  </si>
+  <si>
+    <t>Script Name</t>
+  </si>
+  <si>
+    <t>Script Purpose</t>
+  </si>
+  <si>
+    <t>1241934tables1.csv</t>
+  </si>
+  <si>
+    <t>logodds_Goodman.csv</t>
+  </si>
+  <si>
+    <t>paxdb_extract_five_prime_core.py</t>
+  </si>
+  <si>
+    <t>paxdb_five_prime_core_lo.py</t>
+  </si>
+  <si>
+    <t>figure2.r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculates a log odds ratio for the enrichment of each codon at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 5'-ends of highly expressed experimental transgenes </t>
+  </si>
+  <si>
+    <t>Plots the log odds ratios calculated in 'Goodman_analysis.py'</t>
+  </si>
+  <si>
+    <t>figure1.pdf</t>
+  </si>
+  <si>
+    <t>For each of the 5 genomes with PaxDB proteomics data, it</t>
+  </si>
+  <si>
+    <t>extracts the 5' and core sequences of each CDS in the genome's</t>
+  </si>
+  <si>
+    <t>1x five_prime.txt + 1x core.txt</t>
+  </si>
+  <si>
+    <t>for each genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses the 5' and core sequences for each PaxDB genome to </t>
+  </si>
+  <si>
+    <t>calculate a log odds ratio for the enrichment of each codon at</t>
+  </si>
+  <si>
+    <t>(top 25% by Prot.FCC) and creates a csv of the values</t>
+  </si>
+  <si>
+    <t>Input data from (Goodman, et al. 2013)</t>
+  </si>
+  <si>
+    <t>1x five_prime.txt + 1x core.txt for each genome</t>
+  </si>
+  <si>
+    <t>1x log_odds_five_prime_core.csv</t>
+  </si>
+  <si>
+    <t>figure2.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>log_odds_five_prime_core.csv for</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E. coli</t>
+    </r>
+  </si>
+  <si>
+    <t>EMBL_analysis.py</t>
+  </si>
+  <si>
+    <t>GenBank file and exports them to txt files</t>
+  </si>
+  <si>
+    <t>For each of the 650 genomes, it extracts the CDS of each gene</t>
+  </si>
+  <si>
+    <t>in the genome's EMBL file and exports them to FASTA files. Also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates a summary csv with the accession number and size of </t>
+  </si>
+  <si>
+    <t>each genome</t>
+  </si>
+  <si>
+    <t>bacterial_filtered_genomes</t>
+  </si>
+  <si>
+    <t>genomes.csv</t>
+  </si>
+  <si>
+    <t>genome_folders</t>
+  </si>
+  <si>
+    <t>tfa_analysis.py</t>
+  </si>
+  <si>
+    <t>Reads in all of the FASTA files created in 'EMBL_analysis.py', and</t>
+  </si>
+  <si>
+    <t>creates two txt files for each of the 650 genomes, one containing</t>
+  </si>
+  <si>
+    <t>the 5'-end sequences and one the core sequences</t>
+  </si>
+  <si>
+    <t>five_prime_vs_core.py</t>
+  </si>
+  <si>
+    <t>Uses the 5' and core sequences for each of the 650 genomes to</t>
+  </si>
+  <si>
+    <t>5'-ends compared to core and creates a csv of the values for each</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>merge_csv.r</t>
+  </si>
+  <si>
+    <t>log_odds_five_prime_core.csv for each of the 650 genomes and</t>
+  </si>
+  <si>
+    <t>creates a csv of the resultant dataframe</t>
+  </si>
+  <si>
+    <t>1x log_odds_five_prime_core.csv for each</t>
+  </si>
+  <si>
+    <t>all_log_odds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges  logodds_Goodman.csv with the </t>
+  </si>
+  <si>
+    <t>figure3.r</t>
+  </si>
+  <si>
+    <t>Correlates V edIO against each of the V 5-core vectors produced</t>
+  </si>
+  <si>
+    <t>in 'five_prime_vs_core.py' , plots a histogram of the correlation</t>
+  </si>
+  <si>
+    <t>coefficients and creates a csv of R values</t>
+  </si>
+  <si>
+    <t>figure3.pdf</t>
+  </si>
+  <si>
+    <t>correlation_df.csv</t>
+  </si>
+  <si>
+    <t>GC3_content.py</t>
+  </si>
+  <si>
+    <t>GC3_content.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reads in all of the FASTA files created in 'EMBL_analysis.py', </t>
+  </si>
+  <si>
+    <t>calculates the overall GC3 content of each genome and creates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a csv containing the values </t>
+  </si>
+  <si>
+    <t>merge_rval_GC3.py</t>
+  </si>
+  <si>
+    <t>rval_vs_GC3.csv</t>
+  </si>
+  <si>
+    <t>GC3_content</t>
+  </si>
+  <si>
+    <t>Merges the csv containing the R values with the csv containing</t>
+  </si>
+  <si>
+    <t>the GC3 values and creates a csv of the resulting dataframe</t>
+  </si>
+  <si>
+    <t>figure4a.r</t>
+  </si>
+  <si>
+    <t>figure4a.pdf</t>
+  </si>
+  <si>
+    <t>Plots R values against GC3 content for the 650 genomes and</t>
+  </si>
+  <si>
+    <t>fits a quadratic model to the plot</t>
+  </si>
+  <si>
+    <t>paxdb_genome_analysis.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each of the 5 PaxDB genomes, it creates a csv containing the </t>
+  </si>
+  <si>
+    <t>5'-ends of each CDS defined by their locus tags</t>
+  </si>
+  <si>
+    <t>Input Folder</t>
+  </si>
+  <si>
+    <t>Input CSV</t>
+  </si>
+  <si>
+    <t>Output CSV</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>pax_db_genomes</t>
+  </si>
+  <si>
+    <t>NC_000913.csv</t>
+  </si>
+  <si>
+    <t>NC_002516.csv</t>
+  </si>
+  <si>
+    <t>NC_000962.csv</t>
+  </si>
+  <si>
+    <t>AP009552.csv</t>
+  </si>
+  <si>
+    <t>NC_000964.csv</t>
+  </si>
+  <si>
+    <t>paxdb_proteome_analysis.py</t>
+  </si>
+  <si>
+    <t>pax_db_proteomes</t>
+  </si>
+  <si>
+    <t>For each of the 5 PaxDB genomes, it creates a csv containing a list</t>
+  </si>
+  <si>
+    <t>of each gene and its protein abundance measurment by locus tag</t>
+  </si>
+  <si>
+    <t>Ecoli_protein_abundance.csv</t>
+  </si>
+  <si>
+    <t>Paeruginosa_protein_abundance.csv</t>
+  </si>
+  <si>
+    <t>Mtuberculosis_protein_abundance.csv</t>
+  </si>
+  <si>
+    <t>Maeruginosa_protein_abundance.csv</t>
+  </si>
+  <si>
+    <t>Bsubtilis_protein_abundance.csv</t>
+  </si>
+  <si>
+    <t>Ecoli_5prot_logodds.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges the dataframes containing the E. coli 5' sequences and </t>
+  </si>
+  <si>
+    <t>protein abundance values for each gene. Calculates a log odds</t>
+  </si>
+  <si>
+    <t>ratio for the enrichment of each codon at the 5' ends of genes</t>
+  </si>
+  <si>
+    <t>with high protein abundance (top 25% by abundance), and</t>
+  </si>
+  <si>
+    <t>Ecoli_5prot_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>figure5.r</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plots </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E.coli </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V 5-core against V edIO</t>
+    </r>
+  </si>
+  <si>
+    <t>Plots E. coli V 5-prot against V edIO</t>
+  </si>
+  <si>
+    <t>figure5.pdf</t>
+  </si>
+  <si>
+    <t>outputs a csv of the values</t>
+  </si>
+  <si>
+    <t>Ecoli_TO_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>figure6.r</t>
+  </si>
+  <si>
+    <t>Plots E. coli V 5-prot against V TO</t>
+  </si>
+  <si>
+    <t>figure6.pdf</t>
+  </si>
+  <si>
+    <t>ecoli_low_noise_logodds.py</t>
+  </si>
+  <si>
+    <t>Calculates a log odds ratio for the enrichment of each codon at</t>
+  </si>
+  <si>
+    <t>TableS6.xls</t>
+  </si>
+  <si>
+    <t>logodds_noise.csv</t>
+  </si>
+  <si>
+    <t>figure7.r</t>
+  </si>
+  <si>
+    <t>figure7.pdf</t>
+  </si>
+  <si>
+    <t>Plots V noise against E. coli V 5-prot</t>
+  </si>
+  <si>
+    <t>figureS1.r</t>
+  </si>
+  <si>
+    <t>Plots V edIO against V TO</t>
+  </si>
+  <si>
+    <t>figureS1.pdf</t>
+  </si>
+  <si>
+    <t>Bsubtilis_5prot_logodds.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges the dataframes containing the B. subtilis 5' sequences and </t>
+  </si>
+  <si>
+    <t>Bsubtilis_5prot_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>Maeruginosa_5prot_logodds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges the dataframes containing the M. aeruginosa 5' sequences + </t>
+  </si>
+  <si>
+    <t>AP009225.csv</t>
+  </si>
+  <si>
+    <t>Maeruginosa_5prot_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>Mtuberculosis_5prot_logodds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges the dataframes containing the M. tuberculosis 5' sequences + </t>
+  </si>
+  <si>
+    <t>Mtuberculosis_5prot_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>Paeruginosa_5prot_logodds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merges the dataframes containing the P. aeruginosa 5' sequences + </t>
+  </si>
+  <si>
+    <t>Paeruginosa_5prot_logodds_values.csv</t>
+  </si>
+  <si>
+    <t>Plots V 5-prot vs V edIO for the PaxDB genomes: B. subtilis,</t>
+  </si>
+  <si>
+    <t>M. aeruginosa, M.tuberculosis, P. aeruginosa</t>
+  </si>
+  <si>
+    <t>figureS3a.pdf</t>
+  </si>
+  <si>
+    <t>figureS3b.pdf</t>
+  </si>
+  <si>
+    <t>figureS3c.pdf</t>
+  </si>
+  <si>
+    <t>figureS3d.pdf</t>
+  </si>
+  <si>
+    <t>ecoli_essential.py</t>
+  </si>
+  <si>
+    <t>figureS3a.r -- figureS3d.r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 5' ends of E. coli genes with low noise (bottom 40% by </t>
+  </si>
+  <si>
+    <t>Noise_Protein). Input data from (Taniguchi, et al. 2010)</t>
+  </si>
+  <si>
+    <t>ecoli_five_prime_bygene.csv</t>
+  </si>
+  <si>
+    <t>mbo001183726st1.xlsx</t>
+  </si>
+  <si>
+    <t>logodds_essential_ecoli.csv</t>
+  </si>
+  <si>
+    <t>figureS4b.r</t>
+  </si>
+  <si>
+    <t>Plots V ess against V edIO</t>
+  </si>
+  <si>
+    <t>figureS4b.pdf</t>
+  </si>
+  <si>
+    <t>Calculates a log odds ratio for the enrichment of each codon at the</t>
+  </si>
+  <si>
+    <t>5' ends of essential E. coli genes vs. non-essential and outputs a csv of</t>
+  </si>
+  <si>
+    <t>the values. Input data from (Goodall, et al. 2018)</t>
+  </si>
+  <si>
+    <t>figureS2</t>
+  </si>
+  <si>
+    <t>figureS4a</t>
+  </si>
+  <si>
+    <t>script for TO logodds (Kate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,16 +536,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -85,14 +588,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,39 +1052,1192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA479B9-7A75-F440-A061-0D141F924EA8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Script_details.xlsx
+++ b/Script_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovedaylewin/Documents/GitHub/five-prime-effects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207A7BE4-6B9D-C04F-B8AB-E2E31E725269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CFF34-8074-8548-B5F7-AF6B4463C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{9C09A504-14E5-EE4C-89B7-827C9A4D530B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>Goodman_analysis.py</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>script for TO logodds (Kate)</t>
+  </si>
+  <si>
+    <t>figure4b</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA479B9-7A75-F440-A061-0D141F924EA8}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,40 +1566,40 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,53 +1608,53 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,491 +1663,489 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="10"/>
+      <c r="B79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,92 +2153,103 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3" t="s">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Script_details.xlsx
+++ b/Script_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovedaylewin/Documents/GitHub/five-prime-effects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CFF34-8074-8548-B5F7-AF6B4463C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D87ECE-93A9-E049-9990-CE631C9161F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{9C09A504-14E5-EE4C-89B7-827C9A4D530B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t>Goodman_analysis.py</t>
   </si>
@@ -241,12 +241,6 @@
   </si>
   <si>
     <t>the GC3 values and creates a csv of the resulting dataframe</t>
-  </si>
-  <si>
-    <t>figure4a.r</t>
-  </si>
-  <si>
-    <t>figure4a.pdf</t>
   </si>
   <si>
     <t>Plots R values against GC3 content for the 650 genomes and</t>
@@ -410,15 +404,9 @@
     <t>Plots V noise against E. coli V 5-prot</t>
   </si>
   <si>
-    <t>figureS1.r</t>
-  </si>
-  <si>
     <t>Plots V edIO against V TO</t>
   </si>
   <si>
-    <t>figureS1.pdf</t>
-  </si>
-  <si>
     <t>Bsubtilis_5prot_logodds.py</t>
   </si>
   <si>
@@ -464,24 +452,9 @@
     <t>M. aeruginosa, M.tuberculosis, P. aeruginosa</t>
   </si>
   <si>
-    <t>figureS3a.pdf</t>
-  </si>
-  <si>
-    <t>figureS3b.pdf</t>
-  </si>
-  <si>
-    <t>figureS3c.pdf</t>
-  </si>
-  <si>
-    <t>figureS3d.pdf</t>
-  </si>
-  <si>
     <t>ecoli_essential.py</t>
   </si>
   <si>
-    <t>figureS3a.r -- figureS3d.r</t>
-  </si>
-  <si>
     <t xml:space="preserve">the 5' ends of E. coli genes with low noise (bottom 40% by </t>
   </si>
   <si>
@@ -497,15 +470,9 @@
     <t>logodds_essential_ecoli.csv</t>
   </si>
   <si>
-    <t>figureS4b.r</t>
-  </si>
-  <si>
     <t>Plots V ess against V edIO</t>
   </si>
   <si>
-    <t>figureS4b.pdf</t>
-  </si>
-  <si>
     <t>Calculates a log odds ratio for the enrichment of each codon at the</t>
   </si>
   <si>
@@ -515,16 +482,46 @@
     <t>the values. Input data from (Goodall, et al. 2018)</t>
   </si>
   <si>
-    <t>figureS2</t>
-  </si>
-  <si>
-    <t>figureS4a</t>
-  </si>
-  <si>
-    <t>script for TO logodds (Kate)</t>
-  </si>
-  <si>
-    <t>figure4b</t>
+    <t>figure4.r</t>
+  </si>
+  <si>
+    <t>figure4.pdf</t>
+  </si>
+  <si>
+    <t>figure8.r</t>
+  </si>
+  <si>
+    <t>figure8.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figureS1a.r </t>
+  </si>
+  <si>
+    <t>figureS1b.r</t>
+  </si>
+  <si>
+    <t>figureS1c.r</t>
+  </si>
+  <si>
+    <t>figureR1d.r</t>
+  </si>
+  <si>
+    <t>figureS1a.pdf</t>
+  </si>
+  <si>
+    <t>figureS1b.pdf</t>
+  </si>
+  <si>
+    <t>figureS1c.pdf</t>
+  </si>
+  <si>
+    <t>figureS1d.pdf</t>
+  </si>
+  <si>
+    <t>figure9.r</t>
+  </si>
+  <si>
+    <t>figure9.pdf</t>
   </si>
 </sst>
 </file>
@@ -563,7 +560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,12 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -719,12 +710,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -738,11 +728,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,16 +1043,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA479B9-7A75-F440-A061-0D141F924EA8}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1079,13 +1067,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1140,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
@@ -1157,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -1208,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
@@ -1251,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -1282,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
@@ -1328,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
@@ -1362,7 +1350,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>21</v>
@@ -1408,7 +1396,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -1447,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>46</v>
@@ -1487,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>55</v>
@@ -1519,7 +1507,7 @@
         <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>61</v>
@@ -1541,65 +1529,65 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,53 +1596,53 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1663,132 +1651,140 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1796,42 +1792,42 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1839,19 +1835,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,397 +1855,359 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>74</v>
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A81" s="10"/>
+      <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>132</v>
+      <c r="E93" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>140</v>
+      <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
